--- a/Acciones bitácora.xlsx
+++ b/Acciones bitácora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B9BBB-4289-47EF-9DBD-E02608C3D96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D89EFB-1F18-4D8D-9D19-416580FD0106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="27">
   <si>
     <t>Login</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Recalcular integridad</t>
+  </si>
+  <si>
+    <t>Cambiar idioma</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,6 +626,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Acciones bitácora.xlsx
+++ b/Acciones bitácora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Proyecto-diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D89EFB-1F18-4D8D-9D19-416580FD0106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66D985-A1A0-4BD3-A88C-832D7029D66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Login</t>
   </si>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
